--- a/QA/Tests/CRUD/Step1/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/CRUD/Step1/_Test_Suite_Statistics.xlsx
@@ -54,9 +54,6 @@
     <t>CreateStep1Fields</t>
   </si>
   <si>
-    <t>Ready to Write</t>
-  </si>
-  <si>
     <t>EnableScheduler</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>RequiredFields</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -170,14 +170,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -242,212 +235,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -759,7 +546,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,14 +583,14 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D$2:D36,"Ready to Write")+COUNTIF($D$2:D36,"Outdated")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,23 +616,23 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -854,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -866,7 +653,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -875,22 +662,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="3">
         <f>SUM($B$2:B36)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -906,7 +693,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0.66666666666666663</v>
+        <v>0.78787878787878785</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -925,30 +712,30 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D2:D50">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="7" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="6" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="5" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="1" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="0" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
